--- a/JP (Exclude Game)/Data/chara_tone.xlsx
+++ b/JP (Exclude Game)/Data/chara_tone.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="420">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3748,73 +3748,331 @@
     <t xml:space="preserve">兎</t>
   </si>
   <si>
+    <t xml:space="preserve">meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あんた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たぺこ,たぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこ,ぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこだけど</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこだよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だったぺこ,だったぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うぺこ,うぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">るぺこ,るぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぺこ,ぺこね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">くれぺこ,くれぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あるぺこ,あるぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ないぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頼むぺこよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おつぺこ～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとうぺこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファファファ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">私</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あんた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たぺこ,たぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこ,ぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこだが</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこだよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だったぺこ,だったぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だろうぺこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">のだぺこ,のだぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこけど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うぺこ,うぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">るぺこ,るぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぺこ,ぺこね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">くれぺこ,くれぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あるぺこ,あるぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ない,ないぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頼むぺこよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おつぺこ～</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ありがとうぺこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファファファ</t>
+    <t xml:space="preserve">#meたん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だお,ぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だったお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">んだお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うお,うぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">るお,るぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お,ぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">くれお,くれぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あるお,あるぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ないお,ないぽ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頼むお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感謝するお,ありがたいお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アヒャヒャ,ウヒャヒャ,ププププ,ぷっ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねえねえ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">御曹司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meちゃま</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でしゅね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でしゅが</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でしゅよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だったのでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でしゅか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">るでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぶぁい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でしゅな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なしゃい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">くだしゃい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あるでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ないでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お願いでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではまたでしゅ,さよならでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとでしゅ,ありがトマト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうぞでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へけけ,へけけけけ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんということでしゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へけっ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">princess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なのらね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なのらよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だったのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ですか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">けど</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うなのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">るのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のらね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">くれなのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あるのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ないのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お願いなのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ばいば～い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとなのら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅー,ボク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅー,キミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たにゅ,たにゅー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅが</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だったにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">るにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あるにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ないにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お願いにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅ…,またにゅ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅはは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅにゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にゅお,にゅあ</t>
   </si>
 </sst>
 </file>
@@ -3966,9 +4224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
+      <xdr:colOff>198720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3978,7 +4236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1341360" cy="144360"/>
+          <a:ext cx="1339920" cy="142920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4011,9 +4269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>292680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4023,7 +4281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1435320" cy="144360"/>
+          <a:ext cx="1433880" cy="142920"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -4165,14 +4423,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.57"/>
@@ -5333,86 +5591,89 @@
       <c r="B15" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>322</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>30</v>
@@ -5425,6 +5686,419 @@
       </c>
       <c r="AH15" s="4" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
